--- a/十一月销售数据/金鹤园费用明细表.xlsx
+++ b/十一月销售数据/金鹤园费用明细表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>金鹤园费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>合计费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,32 +333,32 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <font>
         <condense val="0"/>
@@ -368,30 +380,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
         </patternFill>
       </fill>
     </dxf>
@@ -713,7 +701,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -737,18 +725,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1">
       <c r="A2" s="3"/>
@@ -774,7 +762,7 @@
       <c r="I2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="15"/>
@@ -881,7 +869,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="2"/>
       <c r="I6" s="18">
-        <f t="shared" ref="I6:I13" si="0">I5-D6</f>
+        <f t="shared" ref="I6:I15" si="0">I5-D6</f>
         <v>8466.3599999999988</v>
       </c>
       <c r="J6" s="2"/>
@@ -939,7 +927,7 @@
         <v>8069.3599999999988</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -953,7 +941,7 @@
       <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>360</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -995,7 +983,7 @@
         <v>7689.3599999999988</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="24"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1009,7 +997,7 @@
       <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>291.14</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -1087,14 +1075,25 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="21">
+        <v>43042</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="24">
+        <v>211.02</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="18">
+        <f t="shared" si="0"/>
+        <v>6823.9199999999983</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="15"/>
       <c r="L14" s="2"/>
@@ -1104,14 +1103,25 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="21">
+        <v>43042</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="24">
+        <v>41.5</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="18">
+        <f t="shared" si="0"/>
+        <v>6782.4199999999983</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="15"/>
       <c r="L15" s="2"/>
@@ -1121,10 +1131,18 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="21">
+        <v>43043</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="24">
+        <v>264</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="16"/>
@@ -1140,7 +1158,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1157,7 +1175,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="25"/>
+      <c r="D18" s="24"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="7"/>
@@ -1173,7 +1191,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="25"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1181,7 +1199,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="7">
         <f>SUM(D3:D20)</f>
-        <v>2185.0599999999995</v>
+        <v>2701.5799999999995</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="2"/>
@@ -1190,31 +1208,31 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="D20" s="26"/>
+      <c r="D20" s="25"/>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="D21" s="26"/>
+      <c r="D21" s="25"/>
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="D22" s="26"/>
+      <c r="D22" s="25"/>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="D23" s="26"/>
+      <c r="D23" s="25"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="D24" s="26"/>
+      <c r="D24" s="25"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="D25" s="26"/>
+      <c r="D25" s="25"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="D26" s="26"/>
+      <c r="D26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1222,12 +1240,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND(COUNTIF($L$2:$L$2, L2)&gt;1,NOT(ISBLANK(L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($F$2:$F$2, F2)&gt;1,NOT(ISBLANK(F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1264,16 +1282,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="24">
       <c r="A2" s="3"/>
@@ -1332,7 +1350,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>43041</v>
       </c>
       <c r="C4" s="7" t="s">

--- a/十一月销售数据/金鹤园费用明细表.xlsx
+++ b/十一月销售数据/金鹤园费用明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="后勤费用" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>金鹤园费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,14 @@
   </si>
   <si>
     <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,8 +708,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -869,7 +877,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="2"/>
       <c r="I6" s="18">
-        <f t="shared" ref="I6:I15" si="0">I5-D6</f>
+        <f t="shared" ref="I6:I16" si="0">I5-D6</f>
         <v>8466.3599999999988</v>
       </c>
       <c r="J6" s="2"/>
@@ -1146,7 +1154,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="18">
+        <f t="shared" si="0"/>
+        <v>6518.4199999999983</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="15"/>
       <c r="L16" s="2"/>
@@ -1156,10 +1167,18 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="21">
+        <v>43044</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="24">
+        <v>204</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="16"/>
@@ -1199,7 +1218,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="7">
         <f>SUM(D3:D20)</f>
-        <v>2701.5799999999995</v>
+        <v>2905.5799999999995</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="2"/>
@@ -1260,8 +1279,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1373,9 +1392,15 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="21">
+        <v>43044</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>

--- a/十一月销售数据/金鹤园费用明细表.xlsx
+++ b/十一月销售数据/金鹤园费用明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="后勤费用" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>金鹤园费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,11 +179,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,9 +359,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -706,10 +711,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -733,18 +738,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1">
       <c r="A2" s="3"/>
@@ -770,7 +775,7 @@
       <c r="I2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="15"/>
@@ -1177,7 +1182,7 @@
         <v>204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1192,9 +1197,18 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="13">
+        <v>43048</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="24">
+        <v>204</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="7"/>
@@ -1206,52 +1220,237 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="13">
+        <v>43048</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="24">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="7">
-        <f>SUM(D3:D20)</f>
-        <v>2905.5799999999995</v>
-      </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="15"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
-      <c r="D20" s="25"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="D21" s="25"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="D22" s="25"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="D23" s="25"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="D24" s="25"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="D25" s="25"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="D26" s="25"/>
+    <row r="20" spans="1:15" ht="15" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16">
+        <f>SUM(D3:D30)</f>
+        <v>3124.5799999999995</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1279,8 +1478,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1301,16 +1500,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="24">
       <c r="A2" s="3"/>
@@ -1399,7 +1598,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>

--- a/十一月销售数据/金鹤园费用明细表.xlsx
+++ b/十一月销售数据/金鹤园费用明细表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>金鹤园费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -365,6 +369,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -714,7 +721,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1247,12 +1254,23 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="13">
+        <v>43049</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="24">
+        <v>420</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="27">
+        <f>SUM(D16:D20)-15</f>
+        <v>1092</v>
+      </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="7"/>
@@ -1291,7 +1309,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16">
         <f>SUM(D3:D30)</f>
-        <v>3124.5799999999995</v>
+        <v>3544.5799999999995</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="2"/>

--- a/十一月销售数据/金鹤园费用明细表.xlsx
+++ b/十一月销售数据/金鹤园费用明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="后勤费用" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>金鹤园费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,22 @@
   </si>
   <si>
     <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,10 +384,10 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,8 +736,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -745,18 +761,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1">
       <c r="A2" s="3"/>
@@ -1267,7 +1283,7 @@
         <v>34</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="27">
+      <c r="G20" s="26">
         <f>SUM(D16:D20)-15</f>
         <v>1092</v>
       </c>
@@ -1282,10 +1298,18 @@
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="13">
+        <v>43050</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="24">
+        <v>270</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="16"/>
@@ -1299,17 +1323,25 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="13">
+        <v>43050</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="24">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16">
         <f>SUM(D3:D30)</f>
-        <v>3544.5799999999995</v>
+        <v>3829.5799999999995</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="2"/>
@@ -1496,8 +1528,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1518,16 +1550,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="24">
       <c r="A2" s="3"/>
@@ -1632,9 +1664,15 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="21">
+        <v>43050</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>

--- a/十一月销售数据/金鹤园费用明细表.xlsx
+++ b/十一月销售数据/金鹤园费用明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="后勤费用" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>金鹤园费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,7 +211,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,8 +752,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -905,7 +921,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="2"/>
       <c r="I6" s="18">
-        <f t="shared" ref="I6:I16" si="0">I5-D6</f>
+        <f t="shared" ref="I6:I24" si="0">I5-D6</f>
         <v>8466.3599999999988</v>
       </c>
       <c r="J6" s="2"/>
@@ -1210,7 +1226,10 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="I17" s="18">
+        <f t="shared" si="0"/>
+        <v>6314.4199999999983</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="15"/>
       <c r="L17" s="2"/>
@@ -1235,7 +1254,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="18">
+        <f t="shared" si="0"/>
+        <v>6110.4199999999983</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="15"/>
       <c r="L18" s="2"/>
@@ -1260,7 +1282,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="I19" s="18">
+        <f t="shared" si="0"/>
+        <v>6095.4199999999983</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="15"/>
       <c r="L19" s="2"/>
@@ -1288,7 +1313,10 @@
         <v>1092</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="I20" s="18">
+        <f t="shared" si="0"/>
+        <v>5675.4199999999983</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="15"/>
       <c r="L20" s="2"/>
@@ -1313,7 +1341,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="I21" s="18">
+        <f t="shared" si="0"/>
+        <v>5405.4199999999983</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="15"/>
       <c r="L21" s="2"/>
@@ -1338,10 +1369,13 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="I22" s="18">
+        <f t="shared" si="0"/>
+        <v>5390.4199999999983</v>
+      </c>
       <c r="J22" s="16">
         <f>SUM(D3:D30)</f>
-        <v>3829.5799999999995</v>
+        <v>4054.5799999999995</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="2"/>
@@ -1351,14 +1385,25 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="13">
+        <v>43051</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="24">
+        <v>225</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="I23" s="18">
+        <f t="shared" si="0"/>
+        <v>5165.4199999999983</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="15"/>
       <c r="L23" s="2"/>
@@ -1368,14 +1413,23 @@
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="13">
+        <v>43051</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="D24" s="24"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="I24" s="18">
+        <f t="shared" si="0"/>
+        <v>5165.4199999999983</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="15"/>
       <c r="L24" s="2"/>
@@ -1528,8 +1582,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1687,9 +1741,15 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="21">
+        <v>43051</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>

--- a/十一月销售数据/金鹤园费用明细表.xlsx
+++ b/十一月销售数据/金鹤园费用明细表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>金鹤园费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,7 +227,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
+    <t>14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,11 +427,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <color indexed="20"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor indexed="45"/>
         </patternFill>
       </fill>
     </dxf>
@@ -451,11 +451,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="20"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor indexed="45"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -753,7 +753,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -921,7 +921,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="2"/>
       <c r="I6" s="18">
-        <f t="shared" ref="I6:I24" si="0">I5-D6</f>
+        <f t="shared" ref="I6:I25" si="0">I5-D6</f>
         <v>8466.3599999999988</v>
       </c>
       <c r="J6" s="2"/>
@@ -1373,10 +1373,6 @@
         <f t="shared" si="0"/>
         <v>5390.4199999999983</v>
       </c>
-      <c r="J22" s="16">
-        <f>SUM(D3:D30)</f>
-        <v>4054.5799999999995</v>
-      </c>
       <c r="K22" s="15"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1419,16 +1415,15 @@
       <c r="C24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="7" t="s">
-        <v>42</v>
+      <c r="D24" s="15">
+        <v>3</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="16"/>
       <c r="I24" s="18">
         <f t="shared" si="0"/>
-        <v>5165.4199999999983</v>
+        <v>5162.4199999999983</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="15"/>
@@ -1439,14 +1434,25 @@
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="13">
+        <v>43052</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="24">
+        <v>210</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="I25" s="18">
+        <f t="shared" si="0"/>
+        <v>4952.4199999999983</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="15"/>
       <c r="L25" s="2"/>
@@ -1549,7 +1555,10 @@
       <c r="G31" s="2"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="16">
+        <f>SUM(D3:D30)</f>
+        <v>4267.58</v>
+      </c>
       <c r="K31" s="15"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1562,12 +1571,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>AND(COUNTIF($L$2:$L$2, L2)&gt;1,NOT(ISBLANK(L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($F$2:$F$2, F2)&gt;1,NOT(ISBLANK(F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1583,7 +1592,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1987,10 +1996,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($J$2:$J$2, J2)&gt;1,NOT(ISBLANK(J2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/十一月销售数据/金鹤园费用明细表.xlsx
+++ b/十一月销售数据/金鹤园费用明细表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>金鹤园费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹玉志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,11 +439,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="20"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor indexed="45"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -451,11 +463,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <color indexed="20"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor indexed="45"/>
         </patternFill>
       </fill>
     </dxf>
@@ -753,7 +765,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -918,10 +930,12 @@
       <c r="D6" s="15">
         <v>74.900000000000006</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="I6" s="18">
-        <f t="shared" ref="I6:I25" si="0">I5-D6</f>
+        <f t="shared" ref="I6:I26" si="0">I5-D6</f>
         <v>8466.3599999999988</v>
       </c>
       <c r="J6" s="2"/>
@@ -942,7 +956,9 @@
       <c r="D7" s="15">
         <v>7</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="16"/>
@@ -1415,8 +1431,11 @@
       <c r="C24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="24">
         <v>3</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1462,14 +1481,25 @@
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="13">
+        <v>43053</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="24">
+        <v>75</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="18">
+        <f t="shared" si="0"/>
+        <v>4877.4199999999983</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="15"/>
       <c r="L26" s="2"/>
@@ -1557,7 +1587,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="16">
         <f>SUM(D3:D30)</f>
-        <v>4267.58</v>
+        <v>4342.58</v>
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="2"/>
@@ -1571,12 +1601,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND(COUNTIF($L$2:$L$2, L2)&gt;1,NOT(ISBLANK(L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($F$2:$F$2, F2)&gt;1,NOT(ISBLANK(F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1996,10 +2026,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="3" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($J$2:$J$2, J2)&gt;1,NOT(ISBLANK(J2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/十一月销售数据/金鹤园费用明细表.xlsx
+++ b/十一月销售数据/金鹤园费用明细表.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="后勤费用" sheetId="2" r:id="rId1"/>
     <sheet name="回收费用" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="49">
   <si>
     <t>金鹤园费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +241,18 @@
   </si>
   <si>
     <t>张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张、邹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,17 +272,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -335,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -394,15 +410,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -415,7 +425,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -439,11 +461,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <color indexed="20"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor indexed="45"/>
         </patternFill>
       </fill>
     </dxf>
@@ -451,11 +473,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="20"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor indexed="45"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -762,856 +784,668 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="9" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="8" customWidth="1"/>
-    <col min="12" max="12" width="32.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.5">
-      <c r="C1" s="27" t="s">
+    <row r="1" spans="1:9" ht="22.5">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
-      <c r="A2" s="3"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="12">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="12" customFormat="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13">
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1">
+      <c r="A3" s="13">
         <v>43033</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
         <v>280.54000000000002</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15">
-        <f>9220-D3</f>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15">
+        <f>9220-C3</f>
         <v>8939.4599999999991</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="13">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
         <v>43034</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
         <v>237.42</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="18">
-        <f>I3-D4</f>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18">
+        <f>H3-C4</f>
         <v>8702.0399999999991</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="13">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
         <v>43035</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
         <v>160.78</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18">
-        <f>I4-D5</f>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18">
+        <f>H4-C5</f>
         <v>8541.2599999999984</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="13">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.5">
+      <c r="A6" s="13">
         <v>43038</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="15">
+      <c r="C6" s="15">
         <v>74.900000000000006</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="I6" s="18">
-        <f t="shared" ref="I6:I26" si="0">I5-D6</f>
+      <c r="G6" s="16"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6:H26" si="0">H5-C6</f>
         <v>8466.3599999999988</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="13">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
         <v>43038</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="15">
+      <c r="C7" s="15">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="18">
+      <c r="G7" s="16"/>
+      <c r="H7" s="18">
         <f t="shared" si="0"/>
         <v>8459.3599999999988</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="13">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
         <v>43038</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
         <v>390</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="18">
+      <c r="G8" s="16"/>
+      <c r="H8" s="18">
         <f t="shared" si="0"/>
         <v>8069.3599999999988</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="20">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="20">
         <v>43039</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25">
         <v>360</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="26" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="18">
+      <c r="G9" s="16"/>
+      <c r="H9" s="18">
         <f t="shared" si="0"/>
         <v>7709.3599999999988</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="13">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
         <v>43039</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="15">
+      <c r="C10" s="15">
         <v>20</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>17</v>
       </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="18">
+      <c r="G10" s="16"/>
+      <c r="H10" s="18">
         <f t="shared" si="0"/>
         <v>7689.3599999999988</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="13">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
         <v>43040</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="23">
+      <c r="B11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="21">
         <v>291.14</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>19</v>
       </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="18">
+      <c r="G11" s="16"/>
+      <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>7398.2199999999984</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="13">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
         <v>43041</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
         <v>311.77999999999997</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="18">
+      <c r="G12" s="16"/>
+      <c r="H12" s="18">
         <f t="shared" si="0"/>
         <v>7086.4399999999987</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="13">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
         <v>43041</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="B13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
         <v>51.5</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18">
+      <c r="G13" s="16"/>
+      <c r="H13" s="18">
         <f t="shared" si="0"/>
         <v>7034.9399999999987</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="21">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="20">
         <v>43042</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="22">
         <v>211.02</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18">
+      <c r="G14" s="16"/>
+      <c r="H14" s="18">
         <f t="shared" si="0"/>
         <v>6823.9199999999983</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="21">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="20">
         <v>43042</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="B15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="22">
         <v>41.5</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="18">
+      <c r="G15" s="16"/>
+      <c r="H15" s="18">
         <f t="shared" si="0"/>
         <v>6782.4199999999983</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="21">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="20">
         <v>43043</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="B16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="22">
         <v>264</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18">
+      <c r="G16" s="16"/>
+      <c r="H16" s="18">
         <f t="shared" si="0"/>
         <v>6518.4199999999983</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="21">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="20">
         <v>43044</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="24">
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="22">
         <v>204</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="18">
+      <c r="G17" s="16"/>
+      <c r="H17" s="18">
         <f t="shared" si="0"/>
         <v>6314.4199999999983</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="13">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
         <v>43048</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="24">
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="22">
         <v>204</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="18">
+      <c r="G18" s="7"/>
+      <c r="H18" s="18">
         <f t="shared" si="0"/>
         <v>6110.4199999999983</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="13">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
+      <c r="A19" s="13">
         <v>43048</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="24">
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="22">
         <v>15</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="18">
+      <c r="G19" s="16"/>
+      <c r="H19" s="18">
         <f t="shared" si="0"/>
         <v>6095.4199999999983</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="13">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
+      <c r="A20" s="13">
         <v>43049</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="24">
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="22">
         <v>420</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="26">
-        <f>SUM(D16:D20)-15</f>
+      <c r="E20" s="2"/>
+      <c r="F20" s="24">
+        <f>SUM(C16:C20)-15</f>
         <v>1092</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="18">
+      <c r="G20" s="16"/>
+      <c r="H20" s="18">
         <f t="shared" si="0"/>
         <v>5675.4199999999983</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="13">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1">
+      <c r="A21" s="13">
         <v>43050</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="24">
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="22">
         <v>270</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="18">
+      <c r="G21" s="16"/>
+      <c r="H21" s="18">
         <f t="shared" si="0"/>
         <v>5405.4199999999983</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="13">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
+      <c r="A22" s="13">
         <v>43050</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="24">
+      <c r="B22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="22">
         <v>15</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="18">
+      <c r="G22" s="16"/>
+      <c r="H22" s="18">
         <f t="shared" si="0"/>
         <v>5390.4199999999983</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="13">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
+      <c r="A23" s="13">
         <v>43051</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="24">
+      <c r="B23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="22">
         <v>225</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="18">
+      <c r="G23" s="16"/>
+      <c r="H23" s="18">
         <f t="shared" si="0"/>
         <v>5165.4199999999983</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="13">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
+      <c r="A24" s="13">
         <v>43051</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="24">
+      <c r="C24" s="22">
         <v>3</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="18">
+      <c r="G24" s="16"/>
+      <c r="H24" s="18">
         <f t="shared" si="0"/>
         <v>5162.4199999999983</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="13">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
+      <c r="A25" s="13">
         <v>43052</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="24">
+      <c r="B25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="22">
         <v>210</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="18">
+      <c r="G25" s="16"/>
+      <c r="H25" s="18">
         <f t="shared" si="0"/>
         <v>4952.4199999999983</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="13">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
+      <c r="A26" s="13">
         <v>43053</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="24">
+      <c r="B26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="22">
         <v>75</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="18">
+      <c r="G26" s="16"/>
+      <c r="H26" s="18">
         <f t="shared" si="0"/>
         <v>4877.4199999999983</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="16"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16">
-        <f>SUM(D3:D30)</f>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="16">
+        <f>SUM(C3:C30)</f>
         <v>4342.58</v>
       </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:L1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>AND(COUNTIF($L$2:$L$2, L2)&gt;1,NOT(ISBLANK(L2)))</formula>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>AND(COUNTIF($E$2:$E$2, E2)&gt;1,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$2:$F$2, F2)&gt;1,NOT(ISBLANK(F2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageMargins left="0.35" right="0.14000000000000001" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="119" scale="90" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1711,7 +1545,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>43041</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1734,7 +1568,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>43044</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1757,7 +1591,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>43050</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1780,7 +1614,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>43051</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2026,10 +1860,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($J$2:$J$2, J2)&gt;1,NOT(ISBLANK(J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2037,4 +1871,680 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="12">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1">
+      <c r="A3" s="13">
+        <v>43033</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
+        <v>280.54000000000002</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15">
+        <f>9220-C3</f>
+        <v>8939.4599999999991</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <v>43034</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
+        <v>237.42</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18">
+        <f>H3-C4</f>
+        <v>8702.0399999999991</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <v>43035</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>160.78</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18">
+        <f>H4-C5</f>
+        <v>8541.2599999999984</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.5">
+      <c r="A6" s="13">
+        <v>43038</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="15">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6:H27" si="0">H5-C6</f>
+        <v>8466.3599999999988</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <v>43038</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>8459.3599999999988</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <v>43038</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
+        <v>390</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>8069.3599999999988</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="20">
+        <v>43039</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25">
+        <v>360</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>7709.3599999999988</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <v>43039</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="15">
+        <v>20</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>7689.3599999999988</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <v>43040</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="21">
+        <v>291.14</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>7398.2199999999984</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <v>43041</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
+        <v>311.77999999999997</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>7086.4399999999987</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <v>43041</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
+        <v>51.5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="18">
+        <f t="shared" si="0"/>
+        <v>7034.9399999999987</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="20">
+        <v>43042</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="22">
+        <v>211.02</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="18">
+        <f t="shared" si="0"/>
+        <v>6823.9199999999983</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="20">
+        <v>43042</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="22">
+        <v>41.5</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18">
+        <f t="shared" si="0"/>
+        <v>6782.4199999999983</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="20">
+        <v>43043</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="22">
+        <v>264</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
+        <v>6518.4199999999983</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="20">
+        <v>43044</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="22">
+        <v>204</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="18">
+        <f t="shared" si="0"/>
+        <v>6314.4199999999983</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <v>43048</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="22">
+        <v>204</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>6110.4199999999983</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
+      <c r="A19" s="13">
+        <v>43048</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="22">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>6095.4199999999983</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
+      <c r="A20" s="13">
+        <v>43049</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="22">
+        <v>420</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="24">
+        <f>SUM(C16:C20)-15</f>
+        <v>1092</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>5675.4199999999983</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1">
+      <c r="A21" s="13">
+        <v>43050</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="22">
+        <v>270</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>5405.4199999999983</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
+      <c r="A22" s="13">
+        <v>43050</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="22">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="18">
+        <f t="shared" si="0"/>
+        <v>5390.4199999999983</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
+      <c r="A23" s="13">
+        <v>43051</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="22">
+        <v>225</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="18">
+        <f t="shared" si="0"/>
+        <v>5165.4199999999983</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
+      <c r="A24" s="13">
+        <v>43051</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="22">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="18">
+        <f t="shared" si="0"/>
+        <v>5162.4199999999983</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
+      <c r="A25" s="13">
+        <v>43052</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="22">
+        <v>210</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18">
+        <f t="shared" si="0"/>
+        <v>4952.4199999999983</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
+      <c r="A26" s="13">
+        <v>43053</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="22">
+        <v>75</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="18">
+        <f t="shared" si="0"/>
+        <v>4877.4199999999983</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="22">
+        <v>75</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="18">
+        <f t="shared" si="0"/>
+        <v>4802.4199999999983</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="16">
+        <f>SUM(C3:C30)</f>
+        <v>4417.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="G31:H31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND(COUNTIF($E$2:$E$2, E2)&gt;1,NOT(ISBLANK(E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.47" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>